--- a/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,17 +581,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,7</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 77,04</t>
+          <t>0,0; 13,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,86</t>
+          <t>19,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-10,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>149,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>-27,24%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 48,41</t>
+          <t>3,5; 35,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 20,5</t>
+          <t>-41,25; 16,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 238,71</t>
+          <t>13,49; 610,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,28; 61,67</t>
+          <t>-69,14; 121,57</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>31,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>100,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>48,86%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 20,0</t>
+          <t>15,3; 46,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 16,06</t>
+          <t>1,95; 33,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 39,87</t>
+          <t>34,91; 216,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 35,34</t>
+          <t>4,14; 130,7</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>25,34%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 16,32</t>
+          <t>-10,38; 19,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 16,8</t>
+          <t>-4,94; 25,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 29,64</t>
+          <t>-17,39; 47,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 34,03</t>
+          <t>-8,59; 72,08</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,94</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>26,14%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 27,08</t>
+          <t>-2,32; 35,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 25,31</t>
+          <t>-3,55; 34,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 56,34</t>
+          <t>-5,78; 91,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 56,35</t>
+          <t>-6,2; 85,29</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-21,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 17,93</t>
+          <t>-35,79; 7,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 15,95</t>
+          <t>-17,53; 24,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 31,81</t>
+          <t>-43,76; 11,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 37,53</t>
+          <t>-32,39; 75,2</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 14,55</t>
+          <t>4,04; 19,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,63</t>
+          <t>-2,18; 14,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 26,55</t>
+          <t>9,92; 63,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,39</t>
+          <t>-5,6; 44,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,24 +588,14 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="n">
+        <v>38.97945134770144</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -604,154 +603,98 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,53</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>82.00342274907302</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>19,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-10,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>149,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-27,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 35,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-41,25; 16,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>13,49; 610,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-69,14; 121,57</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>30.41293942851348</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-10.95109018416798</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.9751741929915311</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1732393206356515</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>31,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>100,71%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>48,86%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1017788532652426</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-44.50130583666541</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03000657837605819</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5547421951795135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>15,3; 46,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 33,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>34,91; 216,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 130,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>62.22774987848189</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.88691687920095</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>6.945182076018086</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7216976458571058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +702,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>25,34%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>22.94822577017831</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.341513572480837</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4947607853105774</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.07697928924418307</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,38; 19,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 25,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 47,58</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 72,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.94927388043314</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.03451114917228</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.04956879666611925</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2084804485404846</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>40.86264115024267</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.88822594002555</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.19708316667943</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5591594166413786</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>16,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,99</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>34,75%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>26,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 35,07</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 34,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 91,92</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 85,29</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.690572627870013</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.747232857270639</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.02837764842697361</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1876902703179959</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-15,13</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-21,03%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-14.14057297353926</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.431520857504391</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2136067133684233</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.0928541845605446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-35,79; 7,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; 24,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-43,76; 11,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 75,2</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.20345511306099</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>26.12689496532997</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3446698845095794</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6112819136412947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +830,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>11,39</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>17,43%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>10.71164768938515</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.818803312227983</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.1919345503385267</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.117647958431737</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 19,91</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 14,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 63,19</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 44,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.934722535879506</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.94029142959324</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.1312371306003183</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1795406889766503</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>28.03571835874382</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.99025909241095</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.6066328996977366</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.5242695632510658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-3.239835090633136</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>15.98190907636936</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.04299271749606914</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.3413876513997977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-25.00930936748454</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-13.98910444198276</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2996868105715944</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2211288654693477</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15.72048755724747</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>37.61642678362763</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.229222369198103</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.14200382889083</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>10.74011555727177</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.229777518759017</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.1932983696091454</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1149202365276206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.060368513367782</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.075460171233528</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.02308488493080638</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.06840837580258441</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>19.75826386075352</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.30790599556702</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.4137332442934717</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2900894502766557</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1020,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
